--- a/صيدليات دكتور مصطفي طلعت_2026-01-08_18-18.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-08_18-18.xlsx
@@ -158,6 +158,12 @@
     <t>LEZBERG TRIO 40\5\12.5 TAB</t>
   </si>
   <si>
+    <t>LYSE 0.65% NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
     <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
   </si>
   <si>
@@ -222,9 +228,6 @@
   </si>
   <si>
     <t>7785:0</t>
-  </si>
-  <si>
-    <t>6:0</t>
   </si>
   <si>
     <t>WESTAIR 4 MG 14 SACHETS</t>
@@ -1637,7 +1640,7 @@
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
@@ -1657,13 +1660,13 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>110</v>
+        <v>57</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
@@ -1675,7 +1678,7 @@
         <v>32</v>
       </c>
       <c t="s" r="B35" s="7">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1689,7 +1692,7 @@
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
@@ -1701,7 +1704,7 @@
         <v>33</v>
       </c>
       <c t="s" r="B36" s="7">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -1709,13 +1712,13 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>23.039999999999999</v>
+        <v>135</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
@@ -1727,7 +1730,7 @@
         <v>34</v>
       </c>
       <c t="s" r="B37" s="7">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1735,17 +1738,17 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>23</v>
+        <v>23.039999999999999</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -1767,7 +1770,7 @@
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>37.600000000000001</v>
+        <v>23</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
@@ -1787,17 +1790,17 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>56</v>
+        <v>37.600000000000001</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
@@ -1805,7 +1808,7 @@
         <v>37</v>
       </c>
       <c t="s" r="B40" s="7">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -1813,13 +1816,13 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>120</v>
+        <v>56</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
@@ -1831,7 +1834,7 @@
         <v>38</v>
       </c>
       <c t="s" r="B41" s="7">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -1839,17 +1842,17 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
-        <v>61</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -1865,17 +1868,17 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
-        <v>12</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -1883,7 +1886,7 @@
         <v>40</v>
       </c>
       <c t="s" r="B43" s="7">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -1891,17 +1894,17 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -1909,7 +1912,7 @@
         <v>41</v>
       </c>
       <c t="s" r="B44" s="7">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -1917,13 +1920,13 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
@@ -1949,11 +1952,11 @@
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1">
@@ -1969,17 +1972,17 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>192</v>
+        <v>17</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -1987,7 +1990,7 @@
         <v>44</v>
       </c>
       <c t="s" r="B47" s="7">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -1995,17 +1998,17 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>15</v>
+        <v>192</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
-        <v>71</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
@@ -2013,7 +2016,7 @@
         <v>45</v>
       </c>
       <c t="s" r="B48" s="7">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -2021,17 +2024,17 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>98</v>
+        <v>15</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
-        <v>8</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1">
@@ -2053,7 +2056,7 @@
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>168</v>
+        <v>98</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
@@ -2073,13 +2076,13 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>-96</v>
+        <v>168</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
@@ -2099,13 +2102,13 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>-25</v>
+        <v>-96</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
@@ -2117,7 +2120,7 @@
         <v>49</v>
       </c>
       <c t="s" r="B52" s="7">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -2125,13 +2128,13 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>25</v>
+        <v>-25</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
@@ -2143,7 +2146,7 @@
         <v>50</v>
       </c>
       <c t="s" r="B53" s="7">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -2151,13 +2154,13 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>8</v>
+        <v>79</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>320</v>
+        <v>25</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
@@ -2177,13 +2180,13 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>20</v>
+        <v>320</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
@@ -2203,17 +2206,17 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" ht="24.75" customHeight="1">
@@ -2221,7 +2224,7 @@
         <v>53</v>
       </c>
       <c t="s" r="B56" s="7">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
@@ -2229,17 +2232,17 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
-        <v>8</v>
+        <v>84</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2255,13 +2258,13 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
@@ -2273,7 +2276,7 @@
         <v>55</v>
       </c>
       <c t="s" r="B58" s="7">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -2281,13 +2284,13 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
@@ -2307,13 +2310,13 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
@@ -2333,13 +2336,13 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
@@ -2359,51 +2362,77 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
         <v>8</v>
       </c>
     </row>
-    <row r="62" ht="26.25" customHeight="1">
-      <c r="K62" s="10">
-        <v>3242.6399999999999</v>
-      </c>
-      <c r="L62" s="10"/>
-      <c r="M62" s="10"/>
-      <c r="N62" s="10"/>
-    </row>
-    <row r="63" ht="16.5" customHeight="1">
-      <c t="s" r="A63" s="11">
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="A62" s="6">
+        <v>59</v>
+      </c>
+      <c t="s" r="B62" s="7">
+        <v>91</v>
+      </c>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c t="s" r="H62" s="8">
         <v>92</v>
       </c>
-      <c r="B63" s="11"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="11"/>
-      <c t="s" r="F63" s="12">
+      <c r="I62" s="8"/>
+      <c r="J62" s="8"/>
+      <c r="K62" s="8"/>
+      <c r="L62" s="9">
+        <v>65</v>
+      </c>
+      <c r="M62" s="9"/>
+      <c t="s" r="N62" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" ht="25.5" customHeight="1">
+      <c r="K63" s="10">
+        <v>3257.6399999999999</v>
+      </c>
+      <c r="L63" s="10"/>
+      <c r="M63" s="10"/>
+      <c r="N63" s="10"/>
+    </row>
+    <row r="64" ht="17.25" customHeight="1">
+      <c t="s" r="A64" s="11">
         <v>93</v>
       </c>
-      <c r="G63" s="12"/>
-      <c r="H63" s="13"/>
-      <c t="s" r="I63" s="14">
+      <c r="B64" s="11"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c t="s" r="F64" s="12">
         <v>94</v>
       </c>
-      <c r="J63" s="14"/>
-      <c r="K63" s="14"/>
-      <c r="L63" s="14"/>
-      <c r="M63" s="14"/>
-      <c r="N63" s="14"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="13"/>
+      <c t="s" r="I64" s="14">
+        <v>95</v>
+      </c>
+      <c r="J64" s="14"/>
+      <c r="K64" s="14"/>
+      <c r="L64" s="14"/>
+      <c r="M64" s="14"/>
+      <c r="N64" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="185">
+  <mergeCells count="188">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -2585,10 +2614,13 @@
     <mergeCell ref="B61:G61"/>
     <mergeCell ref="H61:K61"/>
     <mergeCell ref="L61:M61"/>
-    <mergeCell ref="K62:N62"/>
-    <mergeCell ref="A63:E63"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="I63:N63"/>
+    <mergeCell ref="B62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="K63:N63"/>
+    <mergeCell ref="A64:E64"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="I64:N64"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
